--- a/output/excel/single_Ghost Rider 4S1P ATL CosMX HPT RS 20HK2 CE Cert.xlsx
+++ b/output/excel/single_Ghost Rider 4S1P ATL CosMX HPT RS 20HK2 CE Cert.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>頁碼採絕對 1-based。本文件僅在切圖中取得 model_name，其餘欄位在切圖與 hints 搜尋均未獲值。</t>
+          <t>頁碼採絕對 1-based。本文件僅在切圖中提供了 model_name 欄位值，其他欄位在切圖與 hints 搜尋均未獲值。</t>
         </is>
       </c>
     </row>
